--- a/output/1Y_P1_1VAL-D.xlsx
+++ b/output/1Y_P1_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>6.7124</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1489.7801</v>
       </c>
-      <c r="G2" s="1">
-        <v>1489.7801</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.155699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>6.7124</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.155699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>7.622</v>
       </c>
+      <c r="E3" s="1">
+        <v>1489.7801</v>
+      </c>
       <c r="F3" s="1">
         <v>1311.9916</v>
       </c>
-      <c r="G3" s="1">
-        <v>2801.7717</v>
-      </c>
       <c r="H3" s="1">
-        <v>21244.1538</v>
+        <v>11296.1087</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1383</v>
+        <v>11296.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>6.7124</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21244.1538</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.065</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>8.533200000000001</v>
       </c>
+      <c r="E4" s="1">
+        <v>2801.7717</v>
+      </c>
       <c r="F4" s="1">
         <v>1171.8933</v>
       </c>
-      <c r="G4" s="1">
-        <v>3973.665</v>
-      </c>
       <c r="H4" s="1">
-        <v>33732.045</v>
+        <v>23783.9599</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>7.5497</v>
+        <v>23783.9599</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>7.1383</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>33732.045</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0796</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>9.073499999999999</v>
       </c>
+      <c r="E5" s="1">
+        <v>3973.665</v>
+      </c>
       <c r="F5" s="1">
         <v>1102.1105</v>
       </c>
-      <c r="G5" s="1">
-        <v>5075.7756</v>
-      </c>
       <c r="H5" s="1">
-        <v>45815.9806</v>
+        <v>35867.89</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>7.8806</v>
+        <v>35867.89</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>7.5497</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45815.9806</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0477</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>9.379</v>
       </c>
+      <c r="E6" s="1">
+        <v>5075.7756</v>
+      </c>
       <c r="F6" s="1">
         <v>1066.2117</v>
       </c>
-      <c r="G6" s="1">
-        <v>6141.9873</v>
-      </c>
       <c r="H6" s="1">
-        <v>57306.5842</v>
+        <v>47358.5087</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>8.140700000000001</v>
+        <v>47358.5087</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>7.8806</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>57306.5842</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0267</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E7" s="1">
+        <v>6141.9873</v>
+      </c>
       <c r="F7" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G7" s="1">
-        <v>7177.0661</v>
-      </c>
       <c r="H7" s="1">
-        <v>68978.0649</v>
+        <v>59030.0259</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>8.359999999999999</v>
+        <v>59030.0259</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>8.140700000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68978.0649</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0248</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E8" s="1">
+        <v>7177.0661</v>
+      </c>
       <c r="F8" s="1">
         <v>931.515</v>
       </c>
-      <c r="G8" s="1">
-        <v>8108.5812</v>
-      </c>
       <c r="H8" s="1">
-        <v>86595.59239999999</v>
+        <v>76647.47779999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>8.6328</v>
+        <v>76647.47779999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>86595.59239999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0965</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E9" s="1">
+        <v>8108.5812</v>
+      </c>
       <c r="F9" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G9" s="1">
-        <v>9081.5047</v>
-      </c>
       <c r="H9" s="1">
-        <v>92858.3854</v>
+        <v>82910.2423</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>8.809100000000001</v>
+        <v>82910.2423</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.6328</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92858.3854</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0387</v>
+        <v>-0.0431</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E10" s="1">
+        <v>9081.5047</v>
+      </c>
       <c r="F10" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G10" s="1">
-        <v>10101.1325</v>
-      </c>
       <c r="H10" s="1">
-        <v>98552.7096</v>
+        <v>88604.60860000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>8.9099</v>
+        <v>88604.60860000001</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.809100000000001</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>4086.6771</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-5913.3229</v>
+        <v>3648.8615</v>
       </c>
       <c r="O10" s="1">
-        <v>4086.6771</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102639.3867</v>
+        <v>-6351.1385</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0021</v>
+        <v>-0.0463</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E11" s="1">
+        <v>10101.1325</v>
+      </c>
       <c r="F11" s="1">
-        <v>1087.7211</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11188.8536</v>
+        <v>1073.7502</v>
       </c>
       <c r="H11" s="1">
-        <v>116271.2101</v>
+        <v>104967.9389</v>
       </c>
       <c r="I11" s="1">
-        <v>101362.2257</v>
+        <v>3648.8615</v>
       </c>
       <c r="J11" s="1">
-        <v>9.059200000000001</v>
+        <v>108616.8004</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91216.28720000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.0303</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11362.2257</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2724.4514</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>118995.6615</v>
+        <v>-11216.2872</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0564</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E12" s="1">
+        <v>11174.8827</v>
+      </c>
       <c r="F12" s="1">
-        <v>1171.5084</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12360.362</v>
+        <v>1156.4613</v>
       </c>
       <c r="H12" s="1">
-        <v>119257.7169</v>
+        <v>107819.7384</v>
       </c>
       <c r="I12" s="1">
-        <v>112724.4514</v>
+        <v>2432.5743</v>
       </c>
       <c r="J12" s="1">
-        <v>9.1198</v>
+        <v>110252.3128</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102432.5743</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.1663</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11362.2257</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1362.2257</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120619.9426</v>
+        <v>-11216.2872</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0649</v>
+        <v>-0.07049999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E13" s="1">
+        <v>12331.3441</v>
+      </c>
       <c r="F13" s="1">
-        <v>1128.7951</v>
-      </c>
-      <c r="G13" s="1">
-        <v>13489.1571</v>
+        <v>1114.2966</v>
       </c>
       <c r="H13" s="1">
-        <v>135073.6748</v>
+        <v>123479.9137</v>
       </c>
       <c r="I13" s="1">
-        <v>124086.6771</v>
+        <v>1216.2872</v>
       </c>
       <c r="J13" s="1">
-        <v>9.199</v>
+        <v>124696.2009</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113648.8615</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.2163</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11362.2257</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>135073.6748</v>
+        <v>-11216.2872</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0341</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E14" s="1">
+        <v>13445.6407</v>
+      </c>
       <c r="F14" s="1">
-        <v>-13489.1571</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-12331.3441</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>150944.7962</v>
       </c>
       <c r="I14" s="1">
-        <v>124086.6771</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>9.199</v>
+        <v>150944.7962</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113648.8615</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.452500000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>151433.3245</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>151433.3245</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>151433.3245</v>
+        <v>138435.3677</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0438</v>
+        <v>0.1206</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>6.7124</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1489.7801</v>
       </c>
       <c r="G2" s="1">
-        <v>1489.7801</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.155699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>6.7124</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.155699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>7.622</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1489.7801</v>
       </c>
       <c r="F3" s="1">
         <v>1147.9072</v>
       </c>
       <c r="G3" s="1">
-        <v>2637.6873</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>11296.1087</v>
       </c>
       <c r="I3" s="1">
-        <v>18749.3484</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1083</v>
+        <v>11296.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8749.348400000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>5.8729</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8749.348400000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>1250.6516</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21250.6516</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0653</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>2637.6873</v>
       </c>
       <c r="F4" s="1">
         <v>896.3395</v>
       </c>
       <c r="G4" s="1">
-        <v>3534.0268</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>22391.0635</v>
       </c>
       <c r="I4" s="1">
-        <v>26397.9928</v>
+        <v>1250.6516</v>
       </c>
       <c r="J4" s="1">
-        <v>7.4697</v>
+        <v>23641.7151</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>16397.9928</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>6.2168</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7648.6443</v>
       </c>
-      <c r="O4" s="1">
-        <v>3602.0072</v>
-      </c>
-      <c r="P4" s="1">
-        <v>33602.0072</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0752</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>3534.0268</v>
       </c>
       <c r="F5" s="1">
         <v>897.4186999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4431.4455</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31899.5394</v>
       </c>
       <c r="I5" s="1">
-        <v>34540.7218</v>
+        <v>3602.0072</v>
       </c>
       <c r="J5" s="1">
-        <v>7.7945</v>
+        <v>35501.5466</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>24540.7218</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>6.9441</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8142.729</v>
       </c>
-      <c r="O5" s="1">
-        <v>5459.2782</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45459.2782</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0426</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>9.379</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>4431.4455</v>
       </c>
       <c r="F6" s="1">
         <v>927.439</v>
       </c>
       <c r="G6" s="1">
-        <v>5358.8845</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41346.7163</v>
       </c>
       <c r="I6" s="1">
-        <v>43239.1718</v>
+        <v>5459.2782</v>
       </c>
       <c r="J6" s="1">
-        <v>8.0687</v>
+        <v>46805.9945</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33239.1718</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>7.5008</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8698.450000000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>6760.8282</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56760.8282</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>5358.8845</v>
       </c>
       <c r="F7" s="1">
         <v>884.0272</v>
       </c>
       <c r="G7" s="1">
-        <v>6242.9117</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51503.703</v>
       </c>
       <c r="I7" s="1">
-        <v>51779.8469</v>
+        <v>6760.8282</v>
       </c>
       <c r="J7" s="1">
-        <v>8.2942</v>
+        <v>58264.5312</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41779.8469</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.7964</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8540.6752</v>
       </c>
-      <c r="O7" s="1">
-        <v>8220.1531</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68220.1531</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0219</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>10.7352</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>6242.9117</v>
       </c>
       <c r="F8" s="1">
         <v>311.7023</v>
       </c>
       <c r="G8" s="1">
-        <v>6554.614</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>66671.17539999999</v>
       </c>
       <c r="I8" s="1">
-        <v>55126.0333</v>
+        <v>8220.1531</v>
       </c>
       <c r="J8" s="1">
-        <v>8.410299999999999</v>
+        <v>74891.3285</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>45126.0333</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>7.2284</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-3346.1864</v>
       </c>
-      <c r="O8" s="1">
-        <v>14873.9667</v>
-      </c>
-      <c r="P8" s="1">
-        <v>84873.9667</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0851</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>10.2783</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6554.614</v>
       </c>
       <c r="F9" s="1">
         <v>1269.3469</v>
       </c>
       <c r="G9" s="1">
-        <v>7823.9609</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67020.9279</v>
       </c>
       <c r="I9" s="1">
-        <v>68172.7616</v>
+        <v>14873.9667</v>
       </c>
       <c r="J9" s="1">
-        <v>8.7133</v>
+        <v>81894.8946</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58172.7616</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.8751</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13046.7282</v>
       </c>
-      <c r="O9" s="1">
-        <v>11827.2384</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91827.2384</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0321</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7823.9609</v>
       </c>
       <c r="F10" s="1">
         <v>1400.5641</v>
       </c>
       <c r="G10" s="1">
-        <v>9224.5249</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>76335.2567</v>
       </c>
       <c r="I10" s="1">
-        <v>81908.7935</v>
+        <v>11827.2384</v>
       </c>
       <c r="J10" s="1">
-        <v>8.8795</v>
+        <v>88162.4952</v>
       </c>
       <c r="K10" s="1">
+        <v>71908.7935</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.190799999999999</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>3520.7824</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-10215.2496</v>
+        <v>2949.5763</v>
       </c>
       <c r="O10" s="1">
-        <v>11611.9889</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101611.9889</v>
+        <v>-10786.4557</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0021</v>
+        <v>-0.0406</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>10.4459</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>9224.5249</v>
       </c>
       <c r="F11" s="1">
         <v>398.5396</v>
       </c>
       <c r="G11" s="1">
-        <v>9623.0646</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>95858.4958</v>
       </c>
       <c r="I11" s="1">
-        <v>86071.8986</v>
+        <v>11040.7827</v>
       </c>
       <c r="J11" s="1">
-        <v>8.9443</v>
+        <v>106899.2785</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76071.8986</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.246700000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4163.1051</v>
       </c>
-      <c r="O11" s="1">
-        <v>17448.8838</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117448.8838</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0523</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>9.6988</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>9623.0646</v>
       </c>
       <c r="F12" s="1">
         <v>1777.7895</v>
       </c>
       <c r="G12" s="1">
-        <v>11400.854</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>92847.1761</v>
       </c>
       <c r="I12" s="1">
-        <v>103314.3231</v>
+        <v>16877.6777</v>
       </c>
       <c r="J12" s="1">
-        <v>9.061999999999999</v>
+        <v>109724.8538</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93314.32309999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.696899999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-17242.4245</v>
       </c>
-      <c r="O12" s="1">
-        <v>10206.4593</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120206.4593</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0568</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>10.0658</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>11400.854</v>
       </c>
       <c r="F13" s="1">
         <v>582.9678</v>
       </c>
       <c r="G13" s="1">
-        <v>11983.8218</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114162.4518</v>
       </c>
       <c r="I13" s="1">
-        <v>109182.3605</v>
+        <v>9635.253199999999</v>
       </c>
       <c r="J13" s="1">
-        <v>9.110799999999999</v>
+        <v>123797.705</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99182.3605</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.6996</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5868.0374</v>
       </c>
-      <c r="O13" s="1">
-        <v>14338.4219</v>
-      </c>
-      <c r="P13" s="1">
-        <v>134338.4219</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0317</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>11.2848</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11983.8218</v>
       </c>
       <c r="F14" s="1">
         <v>-11983.8218</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134533.9791</v>
       </c>
       <c r="I14" s="1">
-        <v>109182.3605</v>
+        <v>13767.2158</v>
       </c>
       <c r="J14" s="1">
-        <v>9.110799999999999</v>
+        <v>148301.1949</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99182.3605</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.276400000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134533.9791</v>
       </c>
-      <c r="O14" s="1">
-        <v>148872.401</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148872.401</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0314</v>
+        <v>0.1084</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>6.7124</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1489.7801</v>
       </c>
       <c r="G2" s="1">
-        <v>1489.7801</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.155699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>6.7124</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.155699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>7.622</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1489.7801</v>
       </c>
       <c r="F3" s="1">
         <v>1154.5014</v>
       </c>
       <c r="G3" s="1">
-        <v>2644.2815</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>11296.1087</v>
       </c>
       <c r="I3" s="1">
-        <v>18799.6096</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1095</v>
+        <v>11296.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8799.6096</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>5.9066</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8799.6096</v>
       </c>
-      <c r="O3" s="1">
-        <v>1200.3904</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21250.3904</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0653</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2644.2815</v>
       </c>
       <c r="F4" s="1">
         <v>907.4449</v>
       </c>
       <c r="G4" s="1">
-        <v>3551.7264</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>22447.0412</v>
       </c>
       <c r="I4" s="1">
-        <v>26543.0182</v>
+        <v>1200.3904</v>
       </c>
       <c r="J4" s="1">
-        <v>7.4733</v>
+        <v>23647.4316</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>16543.0182</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>6.2561</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7743.4086</v>
       </c>
-      <c r="O4" s="1">
-        <v>3456.9818</v>
-      </c>
-      <c r="P4" s="1">
-        <v>33607.2318</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.07539999999999999</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>3551.7264</v>
       </c>
       <c r="F5" s="1">
         <v>913.0659000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>4464.7923</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32059.3029</v>
       </c>
       <c r="I5" s="1">
-        <v>34827.7219</v>
+        <v>3456.9818</v>
       </c>
       <c r="J5" s="1">
-        <v>7.8005</v>
+        <v>35516.2847</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>24827.7219</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>6.9903</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8284.7037</v>
       </c>
-      <c r="O5" s="1">
-        <v>5172.2781</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45473.2793</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0428</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>9.379</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>4464.7923</v>
       </c>
       <c r="F6" s="1">
         <v>947.9497</v>
       </c>
       <c r="G6" s="1">
-        <v>5412.742</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41657.8516</v>
       </c>
       <c r="I6" s="1">
-        <v>43718.5417</v>
+        <v>5172.2781</v>
       </c>
       <c r="J6" s="1">
-        <v>8.077</v>
+        <v>46830.1297</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33718.5417</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>7.5521</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8890.819799999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>6281.4583</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56783.9646</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0236</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>5412.742</v>
       </c>
       <c r="F7" s="1">
         <v>908.7283</v>
       </c>
       <c r="G7" s="1">
-        <v>6321.4703</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52021.3216</v>
       </c>
       <c r="I7" s="1">
-        <v>52497.857</v>
+        <v>6281.4583</v>
       </c>
       <c r="J7" s="1">
-        <v>8.3047</v>
+        <v>58302.78</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42497.857</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.8514</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8779.3153</v>
       </c>
-      <c r="O7" s="1">
-        <v>7502.143</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68257.1618</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.0259</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>10.7352</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>6321.4703</v>
       </c>
       <c r="F8" s="1">
         <v>332.2863</v>
       </c>
       <c r="G8" s="1">
-        <v>6653.7566</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>67510.1419</v>
       </c>
       <c r="I8" s="1">
-        <v>56065.0173</v>
+        <v>7502.143</v>
       </c>
       <c r="J8" s="1">
-        <v>8.4261</v>
+        <v>75012.2849</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>46065.0173</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>7.2871</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-3567.1603</v>
       </c>
-      <c r="O8" s="1">
-        <v>13934.9827</v>
-      </c>
-      <c r="P8" s="1">
-        <v>84993.7766</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0861</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>10.2783</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6653.7566</v>
       </c>
       <c r="F9" s="1">
         <v>1308.5014</v>
       </c>
       <c r="G9" s="1">
-        <v>7962.258</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68034.6615</v>
       </c>
       <c r="I9" s="1">
-        <v>69514.1868</v>
+        <v>13934.9827</v>
       </c>
       <c r="J9" s="1">
-        <v>8.730499999999999</v>
+        <v>81969.6442</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59514.1868</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.9444</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13449.1695</v>
       </c>
-      <c r="O9" s="1">
-        <v>10485.8132</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91899.9011</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0326</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7962.258</v>
       </c>
       <c r="F10" s="1">
         <v>1448.9261</v>
       </c>
       <c r="G10" s="1">
-        <v>9411.183999999999</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>77684.5662</v>
       </c>
       <c r="I10" s="1">
-        <v>83724.5292</v>
+        <v>10485.8132</v>
       </c>
       <c r="J10" s="1">
-        <v>8.8963</v>
+        <v>88170.37940000001</v>
       </c>
       <c r="K10" s="1">
+        <v>73724.5292</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.2592</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>3583.0161</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-10627.3263</v>
+        <v>2994.1905</v>
       </c>
       <c r="O10" s="1">
-        <v>9858.4869</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101679.6452</v>
+        <v>-11216.1519</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0022</v>
+        <v>-0.0413</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>10.4459</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>9411.183999999999</v>
       </c>
       <c r="F11" s="1">
         <v>431.3118</v>
       </c>
       <c r="G11" s="1">
-        <v>9842.495800000001</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>97798.2013</v>
       </c>
       <c r="I11" s="1">
-        <v>88229.9691</v>
+        <v>9269.6613</v>
       </c>
       <c r="J11" s="1">
-        <v>8.9642</v>
+        <v>107067.8626</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78229.9691</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.3124</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4505.4399</v>
       </c>
-      <c r="O11" s="1">
-        <v>15353.047</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117633.3111</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0533</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>9.6988</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>9842.495800000001</v>
       </c>
       <c r="F12" s="1">
         <v>1847.6979</v>
       </c>
       <c r="G12" s="1">
-        <v>11690.1938</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>94964.33689999999</v>
       </c>
       <c r="I12" s="1">
-        <v>106150.4215</v>
+        <v>14764.2214</v>
       </c>
       <c r="J12" s="1">
-        <v>9.080299999999999</v>
+        <v>109728.5583</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96150.4215</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.7689</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-17920.4525</v>
       </c>
-      <c r="O12" s="1">
-        <v>7432.5945</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120224.2599</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.058</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>10.0658</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>11690.1938</v>
       </c>
       <c r="F13" s="1">
         <v>628.7381</v>
       </c>
       <c r="G13" s="1">
-        <v>12318.9318</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>117059.7551</v>
       </c>
       <c r="I13" s="1">
-        <v>112479.1731</v>
+        <v>6843.7689</v>
       </c>
       <c r="J13" s="1">
-        <v>9.130599999999999</v>
+        <v>123903.5241</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102479.1731</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.766299999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6328.7516</v>
       </c>
-      <c r="O13" s="1">
-        <v>11103.843</v>
-      </c>
-      <c r="P13" s="1">
-        <v>134459.4667</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0325</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>11.2848</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>12318.9318</v>
       </c>
       <c r="F14" s="1">
         <v>-12318.9318</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>138296.0242</v>
       </c>
       <c r="I14" s="1">
-        <v>112479.1731</v>
+        <v>10515.0173</v>
       </c>
       <c r="J14" s="1">
-        <v>9.130599999999999</v>
+        <v>148811.0416</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102479.1731</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.3188</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>138296.0242</v>
       </c>
-      <c r="O14" s="1">
-        <v>149399.8672</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149399.8672</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0342</v>
+        <v>0.1113</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>6.7124</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1489.7801</v>
       </c>
       <c r="G2" s="1">
-        <v>1489.7801</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.155699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>6.7124</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.155699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>7.622</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1489.7801</v>
       </c>
       <c r="F3" s="1">
         <v>1161.0956</v>
       </c>
       <c r="G3" s="1">
-        <v>2650.8757</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>11296.1087</v>
       </c>
       <c r="I3" s="1">
-        <v>18849.8707</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1108</v>
+        <v>11296.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8849.870699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>5.9404</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8849.870699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>1150.1293</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21250.1293</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0653</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2650.8757</v>
       </c>
       <c r="F4" s="1">
         <v>918.6091</v>
       </c>
       <c r="G4" s="1">
-        <v>3569.4849</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>22503.0188</v>
       </c>
       <c r="I4" s="1">
-        <v>26688.5462</v>
+        <v>1150.1293</v>
       </c>
       <c r="J4" s="1">
-        <v>7.4769</v>
+        <v>23653.1481</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>16688.5462</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>6.2955</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7838.6756</v>
       </c>
-      <c r="O4" s="1">
-        <v>3311.4538</v>
-      </c>
-      <c r="P4" s="1">
-        <v>33612.4538</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0756</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>3569.4849</v>
       </c>
       <c r="F5" s="1">
         <v>928.8766000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>4498.3615</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32219.5981</v>
       </c>
       <c r="I5" s="1">
-        <v>35116.7082</v>
+        <v>3311.4538</v>
       </c>
       <c r="J5" s="1">
-        <v>7.8066</v>
+        <v>35531.0519</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>25116.7082</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>7.0365</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8428.162</v>
       </c>
-      <c r="O5" s="1">
-        <v>4883.2918</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45487.3018</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.043</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>9.379</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>4498.3615</v>
       </c>
       <c r="F6" s="1">
         <v>968.7779</v>
       </c>
       <c r="G6" s="1">
-        <v>5467.1393</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41971.0621</v>
       </c>
       <c r="I6" s="1">
-        <v>44202.8758</v>
+        <v>4883.2918</v>
       </c>
       <c r="J6" s="1">
-        <v>8.0852</v>
+        <v>46854.3538</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34202.8758</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>7.6034</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9086.1675</v>
       </c>
-      <c r="O6" s="1">
-        <v>5797.1242</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56807.1743</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0238</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>5467.1393</v>
       </c>
       <c r="F7" s="1">
         <v>933.9417999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6401.0811</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52544.1294</v>
       </c>
       <c r="I7" s="1">
-        <v>53225.7808</v>
+        <v>5797.1242</v>
       </c>
       <c r="J7" s="1">
-        <v>8.315099999999999</v>
+        <v>58341.2536</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43225.7808</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.9065</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9022.9051</v>
       </c>
-      <c r="O7" s="1">
-        <v>6774.2192</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68294.3698</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0223</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>10.7352</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>6401.0811</v>
       </c>
       <c r="F8" s="1">
         <v>353.4816</v>
       </c>
       <c r="G8" s="1">
-        <v>6754.5627</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>68360.3459</v>
       </c>
       <c r="I8" s="1">
-        <v>57020.476</v>
+        <v>6774.2192</v>
       </c>
       <c r="J8" s="1">
-        <v>8.441800000000001</v>
+        <v>75134.56510000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>47020.476</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>7.3457</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-3794.6951</v>
       </c>
-      <c r="O8" s="1">
-        <v>12979.524</v>
-      </c>
-      <c r="P8" s="1">
-        <v>85114.87609999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0871</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>10.2783</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>6754.5627</v>
       </c>
       <c r="F9" s="1">
         <v>1348.7826</v>
       </c>
       <c r="G9" s="1">
-        <v>8103.3453</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>69065.4034</v>
       </c>
       <c r="I9" s="1">
-        <v>70883.6683</v>
+        <v>12979.524</v>
       </c>
       <c r="J9" s="1">
-        <v>8.7475</v>
+        <v>82044.9274</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60883.6683</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.0137</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13863.1924</v>
       </c>
-      <c r="O9" s="1">
-        <v>9116.331700000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91973.0373</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.033</v>
+        <v>-0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>8103.3453</v>
       </c>
       <c r="F10" s="1">
         <v>1498.9006</v>
       </c>
       <c r="G10" s="1">
-        <v>9602.2459</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>79061.0987</v>
       </c>
       <c r="I10" s="1">
-        <v>85584.1364</v>
+        <v>9116.331700000001</v>
       </c>
       <c r="J10" s="1">
-        <v>8.9129</v>
+        <v>88177.4304</v>
       </c>
       <c r="K10" s="1">
+        <v>75584.1364</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.327500000000001</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>3646.5054</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-11053.9627</v>
+        <v>3039.5532</v>
       </c>
       <c r="O10" s="1">
-        <v>8062.369</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101747.6417</v>
+        <v>-11660.9148</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0022</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>10.4459</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>9602.2459</v>
       </c>
       <c r="F11" s="1">
         <v>465.6087</v>
       </c>
       <c r="G11" s="1">
-        <v>10067.8547</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99783.6591</v>
       </c>
       <c r="I11" s="1">
-        <v>90447.83869999999</v>
+        <v>7455.4168</v>
       </c>
       <c r="J11" s="1">
-        <v>8.9838</v>
+        <v>107239.0759</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80447.83869999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.378</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4863.7023</v>
       </c>
-      <c r="O11" s="1">
-        <v>13198.6667</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117820.7921</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0543</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>9.6988</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>10067.8547</v>
       </c>
       <c r="F12" s="1">
         <v>1920.4902</v>
       </c>
       <c r="G12" s="1">
-        <v>11988.3449</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>97138.689</v>
       </c>
       <c r="I12" s="1">
-        <v>109074.289</v>
+        <v>12591.7145</v>
       </c>
       <c r="J12" s="1">
-        <v>9.0984</v>
+        <v>109730.4035</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99074.289</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.8407</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-18626.4503</v>
       </c>
-      <c r="O12" s="1">
-        <v>4572.2163</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120240.563</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0593</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>10.0658</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>11988.3449</v>
       </c>
       <c r="F13" s="1">
         <v>677.0598</v>
       </c>
       <c r="G13" s="1">
-        <v>12665.4047</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>120045.2914</v>
       </c>
       <c r="I13" s="1">
-        <v>115889.438</v>
+        <v>3965.2642</v>
       </c>
       <c r="J13" s="1">
-        <v>9.1501</v>
+        <v>124010.5555</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105889.438</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.832700000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6815.149</v>
       </c>
-      <c r="O13" s="1">
-        <v>7757.0674</v>
-      </c>
-      <c r="P13" s="1">
-        <v>134582.0975</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0333</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>11.2848</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>12665.4047</v>
       </c>
       <c r="F14" s="1">
         <v>-12665.4047</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>142185.633</v>
       </c>
       <c r="I14" s="1">
-        <v>115889.438</v>
+        <v>7150.1152</v>
       </c>
       <c r="J14" s="1">
-        <v>9.1501</v>
+        <v>149335.7482</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105889.438</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.3605</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>142185.633</v>
       </c>
-      <c r="O14" s="1">
-        <v>149942.7003</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149942.7003</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0371</v>
+        <v>0.1144</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>6.7124</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1489.7801</v>
       </c>
       <c r="G2" s="1">
-        <v>1489.7801</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.155699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>6.7124</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.155699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>7.622</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1489.7801</v>
       </c>
       <c r="F3" s="1">
         <v>1167.6898</v>
       </c>
       <c r="G3" s="1">
-        <v>2657.4699</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>11296.1087</v>
       </c>
       <c r="I3" s="1">
-        <v>18900.1318</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1121</v>
+        <v>11296.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8900.131799999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>5.9741</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8900.131799999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>1099.8682</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21249.8682</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0653</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2657.4699</v>
       </c>
       <c r="F4" s="1">
         <v>929.8323</v>
       </c>
       <c r="G4" s="1">
-        <v>3587.3022</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>22558.9965</v>
       </c>
       <c r="I4" s="1">
-        <v>26834.5769</v>
+        <v>1099.8682</v>
       </c>
       <c r="J4" s="1">
-        <v>7.4804</v>
+        <v>23658.8647</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>16834.5769</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>6.3348</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7934.4451</v>
       </c>
-      <c r="O4" s="1">
-        <v>3165.4231</v>
-      </c>
-      <c r="P4" s="1">
-        <v>33617.6731</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.07580000000000001</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>3587.3022</v>
       </c>
       <c r="F5" s="1">
         <v>944.8516</v>
       </c>
       <c r="G5" s="1">
-        <v>4532.1539</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32380.425</v>
       </c>
       <c r="I5" s="1">
-        <v>35407.6882</v>
+        <v>3165.4231</v>
       </c>
       <c r="J5" s="1">
-        <v>7.8126</v>
+        <v>35545.8481</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>25407.6882</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>7.0827</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8573.1113</v>
       </c>
-      <c r="O5" s="1">
-        <v>4592.3118</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45501.3455</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0432</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>9.379</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>4532.1539</v>
       </c>
       <c r="F6" s="1">
         <v>989.9268</v>
       </c>
       <c r="G6" s="1">
-        <v>5522.0807</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42286.3553</v>
       </c>
       <c r="I6" s="1">
-        <v>44692.2116</v>
+        <v>4592.3118</v>
       </c>
       <c r="J6" s="1">
-        <v>8.093400000000001</v>
+        <v>46878.6671</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34692.2116</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>7.6547</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9284.5234</v>
       </c>
-      <c r="O6" s="1">
-        <v>5307.7884</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56830.4577</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0239</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>5522.0807</v>
       </c>
       <c r="F7" s="1">
         <v>959.6754</v>
       </c>
       <c r="G7" s="1">
-        <v>6481.7561</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53072.1651</v>
       </c>
       <c r="I7" s="1">
-        <v>53963.7315</v>
+        <v>5307.7884</v>
       </c>
       <c r="J7" s="1">
-        <v>8.3255</v>
+        <v>58379.9535</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43963.7315</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.9614</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9271.519899999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>6036.2685</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68331.7778</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0225</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>10.7352</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>6481.7561</v>
       </c>
       <c r="F8" s="1">
         <v>375.3011</v>
       </c>
       <c r="G8" s="1">
-        <v>6857.0572</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>69221.91379999999</v>
       </c>
       <c r="I8" s="1">
-        <v>57992.6639</v>
+        <v>6036.2685</v>
       </c>
       <c r="J8" s="1">
-        <v>8.4574</v>
+        <v>75258.1823</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>47992.6639</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>7.4043</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4028.9324</v>
       </c>
-      <c r="O8" s="1">
-        <v>12007.3361</v>
-      </c>
-      <c r="P8" s="1">
-        <v>85237.2781</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0882</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>10.2783</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>6857.0572</v>
       </c>
       <c r="F9" s="1">
         <v>1390.2183</v>
       </c>
       <c r="G9" s="1">
-        <v>8247.2754</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>70113.40949999999</v>
       </c>
       <c r="I9" s="1">
-        <v>72281.7441</v>
+        <v>12007.3361</v>
       </c>
       <c r="J9" s="1">
-        <v>8.7643</v>
+        <v>82120.74559999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62281.7441</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.0829</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-14289.0802</v>
       </c>
-      <c r="O9" s="1">
-        <v>7718.2559</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92046.64690000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0335</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>8247.2754</v>
       </c>
       <c r="F10" s="1">
         <v>1550.535</v>
       </c>
       <c r="G10" s="1">
-        <v>9797.8104</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>80465.3673</v>
       </c>
       <c r="I10" s="1">
-        <v>87488.61599999999</v>
+        <v>7718.2559</v>
       </c>
       <c r="J10" s="1">
-        <v>8.929399999999999</v>
+        <v>88183.6231</v>
       </c>
       <c r="K10" s="1">
+        <v>77488.61599999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.3957</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>3711.2739</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-11495.598</v>
+        <v>3085.6757</v>
       </c>
       <c r="O10" s="1">
-        <v>6222.6579</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101815.9748</v>
+        <v>-12121.1962</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0023</v>
+        <v>-0.0427</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>10.4459</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>9797.8104</v>
       </c>
       <c r="F11" s="1">
         <v>501.4878</v>
       </c>
       <c r="G11" s="1">
-        <v>10299.2982</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>101815.9063</v>
       </c>
       <c r="I11" s="1">
-        <v>92727.107</v>
+        <v>5597.0597</v>
       </c>
       <c r="J11" s="1">
-        <v>9.0032</v>
+        <v>107412.966</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82727.107</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.4434</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5238.491</v>
       </c>
-      <c r="O11" s="1">
-        <v>10984.1669</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118011.3836</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0554</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>9.6988</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>10299.2982</v>
       </c>
       <c r="F12" s="1">
         <v>1996.2767</v>
       </c>
       <c r="G12" s="1">
-        <v>12295.5749</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>99371.7484</v>
       </c>
       <c r="I12" s="1">
-        <v>112088.5959</v>
+        <v>10358.5687</v>
       </c>
       <c r="J12" s="1">
-        <v>9.116199999999999</v>
+        <v>109730.3171</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102088.5959</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.9122</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-19361.4889</v>
       </c>
-      <c r="O12" s="1">
-        <v>1622.678</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120255.3029</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0606</v>
+        <v>-0.0654</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>10.0658</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>12295.5749</v>
       </c>
       <c r="F13" s="1">
         <v>728.0546000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>13023.6295</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>123121.7393</v>
       </c>
       <c r="I13" s="1">
-        <v>119417.0482</v>
+        <v>997.0798</v>
       </c>
       <c r="J13" s="1">
-        <v>9.1693</v>
+        <v>124118.8191</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109417.0482</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.898899999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7328.4522</v>
       </c>
-      <c r="O13" s="1">
-        <v>4294.2258</v>
-      </c>
-      <c r="P13" s="1">
-        <v>134706.3401</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0342</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>11.2848</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>13023.6295</v>
       </c>
       <c r="F14" s="1">
         <v>-13023.6295</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>146207.1722</v>
       </c>
       <c r="I14" s="1">
-        <v>119417.0482</v>
+        <v>3668.6275</v>
       </c>
       <c r="J14" s="1">
-        <v>9.1693</v>
+        <v>149875.7997</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109417.0482</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.401400000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>146207.1722</v>
       </c>
-      <c r="O14" s="1">
-        <v>150501.398</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150501.398</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.04</v>
+        <v>0.1175</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>11.2544</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.199</v>
+        <v>8.452500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.110799999999999</v>
+        <v>8.276400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>9.130599999999999</v>
+        <v>8.3188</v>
       </c>
       <c r="F3" s="1">
-        <v>9.1501</v>
+        <v>8.3605</v>
       </c>
       <c r="G3" s="1">
-        <v>9.1693</v>
+        <v>8.401400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.5575</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3689</v>
+        <v>0.5792</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3379</v>
+        <v>0.5406</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3425</v>
+        <v>0.5456</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3472</v>
+        <v>0.5508</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3521</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2335</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1553</v>
+        <v>0.2358</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1396</v>
+        <v>0.2145</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1413</v>
+        <v>0.2172</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1431</v>
+        <v>0.2199</v>
       </c>
       <c r="G5" s="3">
-        <v>0.145</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2.3002</v>
       </c>
       <c r="C6" s="4">
-        <v>2.2445</v>
+        <v>2.3707</v>
       </c>
       <c r="D6" s="4">
-        <v>2.2754</v>
+        <v>2.425</v>
       </c>
       <c r="E6" s="4">
-        <v>2.2803</v>
+        <v>2.4188</v>
       </c>
       <c r="F6" s="4">
-        <v>2.2844</v>
+        <v>2.4122</v>
       </c>
       <c r="G6" s="4">
-        <v>2.2878</v>
+        <v>2.4054</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5218</v>
+        <v>0.2981</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5504</v>
+        <v>0.5371</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5497</v>
+        <v>0.5362</v>
       </c>
       <c r="F7" s="3">
-        <v>0.549</v>
+        <v>0.5353</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5483</v>
+        <v>0.5345</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4086.6771</v>
+        <v>3648.8615</v>
       </c>
       <c r="D8" s="1">
-        <v>3520.7824</v>
+        <v>2949.5763</v>
       </c>
       <c r="E8" s="1">
-        <v>3583.0161</v>
+        <v>2994.1905</v>
       </c>
       <c r="F8" s="1">
-        <v>3646.5054</v>
+        <v>3039.5532</v>
       </c>
       <c r="G8" s="1">
-        <v>3711.2739</v>
+        <v>3085.6757</v>
       </c>
     </row>
   </sheetData>
